--- a/backend/public/StudentData.xlsx
+++ b/backend/public/StudentData.xlsx
@@ -614,7 +614,7 @@
         <v>Not Verified</v>
       </c>
       <c r="AI2" s="2">
-        <v>45568.854668506945</v>
+        <v>45570.56295853009</v>
       </c>
     </row>
     <row r="3">
@@ -649,7 +649,7 @@
         <v>Not Verified</v>
       </c>
       <c r="AI3" s="2">
-        <v>45568.85466855324</v>
+        <v>45570.562958703704</v>
       </c>
     </row>
     <row r="4">
@@ -693,7 +693,7 @@
         <v>Not Verified</v>
       </c>
       <c r="AI4" s="2">
-        <v>45568.85466856482</v>
+        <v>45570.562958738425</v>
       </c>
     </row>
     <row r="5">
@@ -797,7 +797,7 @@
         <v>Verified</v>
       </c>
       <c r="AI5" s="2">
-        <v>45568.85466858796</v>
+        <v>45570.562958773146</v>
       </c>
     </row>
     <row r="6">
@@ -901,7 +901,7 @@
         <v>Not Verified</v>
       </c>
       <c r="AI6" s="2">
-        <v>45568.85466859954</v>
+        <v>45570.5629587963</v>
       </c>
     </row>
     <row r="7">
@@ -1005,7 +1005,7 @@
         <v>Not Verified</v>
       </c>
       <c r="AI7" s="2">
-        <v>45568.854668622684</v>
+        <v>45570.56295883102</v>
       </c>
     </row>
     <row r="8">
@@ -1109,7 +1109,7 @@
         <v>Not Verified</v>
       </c>
       <c r="AI8" s="2">
-        <v>45568.85466863426</v>
+        <v>45570.56295886574</v>
       </c>
     </row>
     <row r="9">
@@ -1213,7 +1213,7 @@
         <v>Not Verified</v>
       </c>
       <c r="AI9" s="2">
-        <v>45568.854668645836</v>
+        <v>45570.56295890046</v>
       </c>
     </row>
     <row r="10">
@@ -1317,7 +1317,7 @@
         <v>Not Verified</v>
       </c>
       <c r="AI10" s="2">
-        <v>45568.854668657405</v>
+        <v>45570.56295893519</v>
       </c>
     </row>
     <row r="11">
@@ -1421,7 +1421,7 @@
         <v>Not Verified</v>
       </c>
       <c r="AI11" s="2">
-        <v>45568.85466866898</v>
+        <v>45570.56295898148</v>
       </c>
     </row>
     <row r="12">
@@ -1525,7 +1525,7 @@
         <v>Not Verified</v>
       </c>
       <c r="AI12" s="2">
-        <v>45568.85466868056</v>
+        <v>45570.562959016206</v>
       </c>
     </row>
     <row r="13">
@@ -1629,7 +1629,7 @@
         <v>Not Verified</v>
       </c>
       <c r="AI13" s="2">
-        <v>45568.85466868056</v>
+        <v>45570.56295905093</v>
       </c>
     </row>
     <row r="14">
@@ -1733,7 +1733,7 @@
         <v>Not Verified</v>
       </c>
       <c r="AI14" s="2">
-        <v>45568.85466869213</v>
+        <v>45570.56295908565</v>
       </c>
     </row>
     <row r="15">
@@ -1837,7 +1837,7 @@
         <v>Not Verified</v>
       </c>
       <c r="AI15" s="2">
-        <v>45568.8546687037</v>
+        <v>45570.56295912037</v>
       </c>
     </row>
     <row r="16">
@@ -1941,7 +1941,7 @@
         <v>Not Verified</v>
       </c>
       <c r="AI16" s="2">
-        <v>45568.85466871528</v>
+        <v>45570.562959166666</v>
       </c>
     </row>
     <row r="17">
@@ -2045,7 +2045,7 @@
         <v>Not Verified</v>
       </c>
       <c r="AI17" s="2">
-        <v>45568.85466872685</v>
+        <v>45570.56295920139</v>
       </c>
     </row>
     <row r="18">
@@ -2149,7 +2149,7 @@
         <v>Not Verified</v>
       </c>
       <c r="AI18" s="2">
-        <v>45568.85466873842</v>
+        <v>45570.562959236115</v>
       </c>
     </row>
     <row r="19">
@@ -2253,7 +2253,7 @@
         <v>Not Verified</v>
       </c>
       <c r="AI19" s="2">
-        <v>45568.85466873842</v>
+        <v>45570.562959282404</v>
       </c>
     </row>
     <row r="20">
@@ -2357,7 +2357,7 @@
         <v>Not Verified</v>
       </c>
       <c r="AI20" s="2">
-        <v>45568.85466875</v>
+        <v>45570.56295930556</v>
       </c>
     </row>
     <row r="21">
@@ -2461,7 +2461,7 @@
         <v>Not Verified</v>
       </c>
       <c r="AI21" s="2">
-        <v>45568.854668761574</v>
+        <v>45570.56295934028</v>
       </c>
     </row>
     <row r="22">
@@ -2565,7 +2565,7 @@
         <v>Not Verified</v>
       </c>
       <c r="AI22" s="2">
-        <v>45568.854668761574</v>
+        <v>45570.562959375</v>
       </c>
     </row>
     <row r="23">
@@ -2669,7 +2669,7 @@
         <v>Not Verified</v>
       </c>
       <c r="AI23" s="2">
-        <v>45568.85466878472</v>
+        <v>45570.56295940972</v>
       </c>
     </row>
     <row r="24">
@@ -2773,7 +2773,7 @@
         <v>Not Verified</v>
       </c>
       <c r="AI24" s="2">
-        <v>45568.85466878472</v>
+        <v>45570.56295944445</v>
       </c>
     </row>
     <row r="25">
@@ -2877,7 +2877,7 @@
         <v>Not Verified</v>
       </c>
       <c r="AI25" s="2">
-        <v>45568.854668796295</v>
+        <v>45570.56295947917</v>
       </c>
     </row>
     <row r="26">
@@ -2981,7 +2981,7 @@
         <v>Not Verified</v>
       </c>
       <c r="AI26" s="2">
-        <v>45568.85466880787</v>
+        <v>45570.56295951389</v>
       </c>
     </row>
     <row r="27">
@@ -3085,7 +3085,7 @@
         <v>Not Verified</v>
       </c>
       <c r="AI27" s="2">
-        <v>45568.85466881945</v>
+        <v>45570.56295954861</v>
       </c>
     </row>
     <row r="28">
@@ -3189,7 +3189,7 @@
         <v>Not Verified</v>
       </c>
       <c r="AI28" s="2">
-        <v>45568.854668831016</v>
+        <v>45570.56295958333</v>
       </c>
     </row>
     <row r="29">
@@ -3293,7 +3293,7 @@
         <v>Not Verified</v>
       </c>
       <c r="AI29" s="2">
-        <v>45568.85466884259</v>
+        <v>45570.56295961806</v>
       </c>
     </row>
     <row r="30">
@@ -3397,7 +3397,7 @@
         <v>Not Verified</v>
       </c>
       <c r="AI30" s="2">
-        <v>45568.85466885417</v>
+        <v>45570.56295965278</v>
       </c>
     </row>
     <row r="31">
@@ -3501,7 +3501,7 @@
         <v>Not Verified</v>
       </c>
       <c r="AI31" s="2">
-        <v>45568.854668865744</v>
+        <v>45570.5629596875</v>
       </c>
     </row>
     <row r="32">
@@ -3605,7 +3605,7 @@
         <v>Not Verified</v>
       </c>
       <c r="AI32" s="2">
-        <v>45568.85466887731</v>
+        <v>45570.56295972222</v>
       </c>
     </row>
     <row r="33">
@@ -3709,7 +3709,7 @@
         <v>Not Verified</v>
       </c>
       <c r="AI33" s="2">
-        <v>45568.85466888889</v>
+        <v>45570.56295974537</v>
       </c>
     </row>
     <row r="34">
@@ -3813,7 +3813,7 @@
         <v>Not Verified</v>
       </c>
       <c r="AI34" s="2">
-        <v>45568.854668900465</v>
+        <v>45570.562959780094</v>
       </c>
     </row>
     <row r="35">
@@ -3917,7 +3917,7 @@
         <v>Not Verified</v>
       </c>
       <c r="AI35" s="2">
-        <v>45568.854668900465</v>
+        <v>45570.562959814815</v>
       </c>
     </row>
     <row r="36">
@@ -4021,7 +4021,7 @@
         <v>Not Verified</v>
       </c>
       <c r="AI36" s="2">
-        <v>45568.854668912034</v>
+        <v>45570.562959849536</v>
       </c>
     </row>
     <row r="37">
@@ -4125,7 +4125,7 @@
         <v>Not Verified</v>
       </c>
       <c r="AI37" s="2">
-        <v>45568.85466892361</v>
+        <v>45570.56295988426</v>
       </c>
     </row>
     <row r="38">
@@ -4229,7 +4229,7 @@
         <v>Not Verified</v>
       </c>
       <c r="AI38" s="2">
-        <v>45568.85466892361</v>
+        <v>45570.56295991898</v>
       </c>
     </row>
   </sheetData>
